--- a/设置.xlsx
+++ b/设置.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\医院统计程序\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B089CAA2-46E3-48FB-9D1A-9EE695F5D2AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F2749-68D3-4207-8296-D988A6B6082B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,43 +22,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>每统计一行都输出一次</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>显示没被统计到的字段</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>显示没被统计到的单元格</t>
+  </si>
+  <si>
+    <t>需要替换的符号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把符号替换为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计年份关键字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
   <si>
     <t>设置</t>
-  </si>
-  <si>
-    <t>选择</t>
-  </si>
-  <si>
-    <t>每统计一行都输出一次</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>显示没被统计到的字段</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>显示没被统计到的单元格</t>
-  </si>
-  <si>
-    <t>需要替换的符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把符号替换为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接在文件夹&lt;导出数据存储处&gt;中依次读取文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件夹&lt;导出数据存储处&gt;中读取文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来统计大批文件，把你要统计的文件都放到这个文件夹里，软件会自动搜索里面所有的.xlsx文件，然后进行统计；如果你只需要统计一个文件，那么把这一项设置为“否”，之后就可以使用把文件拖入控制窗口的方式一个一个文件来进行统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你想看到软件详细的计算过程，把这一项选择为“是”即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来指出没有被统计到的“检查全部项目”的单元格，比上面的那一项更粗略，可以据此来看看你的关键词字典里还有什么没有统计到的关键词，如果不想让它输出，请选择“否”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来指出没有被统计到的“检查全部项目”的具体一个项目，比如说一个单元格“胸部正位/骨盆正位/腰椎正侧位”，可以分成三个项目：“胸部正位”“骨盆正位”“腰椎正侧位”，如果其中某一个项目没有被统计到，程序就会输出。如果不想让程序输出，请选择“否”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项是与&lt;导出数据储存处&gt;搭配使用的，因为同一时间&lt;导出数据存储处&gt;里面可能会有好几年的文件，如果需要按照年份来进行统计，在这里输入某个年份，比如“2021”之后，程序就会寻找所有名字里带有“2021”的文件夹或者文件，然后进行统计。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计文件导出来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据是新院区的还是旧院区的？这两种文件的关键字不同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧院区</t>
   </si>
 </sst>
 </file>
@@ -132,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +222,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,60 +530,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1628FA5B-43A0-459F-8E3E-1D04CCD4CA0D}">
+      <formula1>"新院区,旧院区"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -521,10 +677,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/设置.xlsx
+++ b/设置.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F2749-68D3-4207-8296-D988A6B6082B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CCF50-5CAE-41C6-BF8B-1AE615E86322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设置" sheetId="1" r:id="rId1"/>
-    <sheet name="符号替换" sheetId="2" r:id="rId2"/>
+    <sheet name="统计明细格式" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>选择</t>
   </si>
   <si>
-    <t>每统计一行都输出一次</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -42,28 +39,16 @@
     <t>显示没被统计到的单元格</t>
   </si>
   <si>
-    <t>需要替换的符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把符号替换为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>统计年份关键字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S2</t>
@@ -75,19 +60,51 @@
     <t>S4</t>
   </si>
   <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在文件夹&lt;导出数据存储处&gt;中读取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来统计大批文件，把你要统计的文件都放到这个文件夹里，软件会自动搜索里面所有的.xlsx文件，然后进行统计；如果你只需要统计一个文件，那么把这一项设置为“否”，之后就可以使用把文件拖入控制窗口的方式一个一个文件来进行统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来指出没有被统计到的“检查全部项目”的单元格，比上面的那一项更粗略，可以据此来看看你的关键词字典里还有什么没有统计到的关键词，如果不想让它输出，请选择“否”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项用来指出没有被统计到的“检查全部项目”的具体一个项目，比如说一个单元格“胸部正位/骨盆正位/腰椎正侧位”，可以分成三个项目：“胸部正位”“骨盆正位”“腰椎正侧位”，如果其中某一个项目没有被统计到，程序就会输出。如果不想让程序输出，请选择“否”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计文件导出来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S5</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在文件夹&lt;导出数据存储处&gt;中读取文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据是新院区的还是旧院区的？这一项用来确定表头的关键字，导出文件中统计的表头关键字不同。表头关键字就是你统计的文件里，CT/DR/MR所在的那一列的列名，还有诸如"胸椎正侧位/腰椎正侧位/骨盆正位"这一列的列名，见右图所示。下面是几种文件的表头关键字。
+旧院区:"设备""检查部位"
+新院区:"检查类型""检查全部项目"
+新院区2:"检查类型""检查项目"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>S</t>
+      <t>E</t>
     </r>
     <r>
       <rPr>
@@ -98,45 +115,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
+      <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一项用来统计大批文件，把你要统计的文件都放到这个文件夹里，软件会自动搜索里面所有的.xlsx文件，然后进行统计；如果你只需要统计一个文件，那么把这一项设置为“否”，之后就可以使用把文件拖入控制窗口的方式一个一个文件来进行统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你想看到软件详细的计算过程，把这一项选择为“是”即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一项用来指出没有被统计到的“检查全部项目”的单元格，比上面的那一项更粗略，可以据此来看看你的关键词字典里还有什么没有统计到的关键词，如果不想让它输出，请选择“否”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一项用来指出没有被统计到的“检查全部项目”的具体一个项目，比如说一个单元格“胸部正位/骨盆正位/腰椎正侧位”，可以分成三个项目：“胸部正位”“骨盆正位”“腰椎正侧位”，如果其中某一个项目没有被统计到，程序就会输出。如果不想让程序输出，请选择“否”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这一项是与&lt;导出数据储存处&gt;搭配使用的，因为同一时间&lt;导出数据存储处&gt;里面可能会有好几年的文件，如果需要按照年份来进行统计，在这里输入某个年份，比如“2021”之后，程序就会寻找所有名字里带有“2021”的文件夹或者文件，然后进行统计。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计文件导出来源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的数据是新院区的还是旧院区的？这两种文件的关键字不同</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成统计明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你想看到软件详细的计算过程，把这一项选择为“是”，程序会生成一份详细的统计报告，不过统计的用时会久一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一项是与&lt;导出数据储存处&gt;搭配使用的，因为同一时间&lt;导出数据存储处&gt;里面可能会有好几年的文件，如果需要按照年份来进行统计，在这里输入某个年份，比如“2021”之后，程序就会寻找所有名字里带有“2021”的文件，然后逐个进行统计。
+如果想要统计全部年份的文件，请选择"全部"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旧院区</t>
@@ -146,17 +140,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,27 +171,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -213,17 +185,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -241,6 +210,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>937261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490147FC-1A56-4652-B7D7-FD024C41EBFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8084820" y="182881"/>
+          <a:ext cx="2080059" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,158 +551,172 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C7">
         <v>2021</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1628FA5B-43A0-459F-8E3E-1D04CCD4CA0D}">
-      <formula1>"新院区,旧院区"</formula1>
+      <formula1>"新院区,旧院区,新院区2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{122D7255-6164-4E51-9458-7A994ED412BE}">
+      <formula1>"2019,2020,2021,2022,2023,全部"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -698,7 +730,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/设置.xlsx
+++ b/设置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CCF50-5CAE-41C6-BF8B-1AE615E86322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D68BAC5-1081-49AB-998D-EB0AE8EF74FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>选择</t>
   </si>
@@ -93,13 +93,6 @@
   </si>
   <si>
     <t>S5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的数据是新院区的还是旧院区的？这一项用来确定表头的关键字，导出文件中统计的表头关键字不同。表头关键字就是你统计的文件里，CT/DR/MR所在的那一列的列名，还有诸如"胸椎正侧位/腰椎正侧位/骨盆正位"这一列的列名，见右图所示。下面是几种文件的表头关键字。
-旧院区:"设备""检查部位"
-新院区:"检查类型""检查全部项目"
-新院区2:"检查类型""检查项目"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,20 +113,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成统计明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你想看到软件详细的计算过程，把这一项选择为“是”，程序会生成一份详细的统计报告，不过统计的用时会久一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这一项是与&lt;导出数据储存处&gt;搭配使用的，因为同一时间&lt;导出数据存储处&gt;里面可能会有好几年的文件，如果需要按照年份来进行统计，在这里输入某个年份，比如“2021”之后，程序就会寻找所有名字里带有“2021”的文件，然后逐个进行统计。
 如果想要统计全部年份的文件，请选择"全部"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旧院区</t>
+    <t>S6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用统计关键字？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据是新院区的还是旧院区的？这一项用来确定表头的关键字，导出文件中统计的表头关键字不同。表头关键字就是你统计的文件里，CT/DR/MR所在的那一列的列名，还有诸如"胸椎正侧位/腰椎正侧位/骨盆正位"这一列的列名，还有患者姓名这一列的列名。见右图所示。下面是几种文件的表头关键字。
+旧院区:"姓  名""设备""检查部位"
+新院区:"患者姓名""检查类型""检查全部项目"
+新院区2:"患者姓名""检查类型""检查项目"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新院区</t>
+  </si>
+  <si>
+    <t>生成统计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你想看到软件详细的计算过程，把这一项选择为“是”，程序会在&lt;统计结果保存处&gt;生成一份详细的统计报告，不过统计的用时会久一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了加快统计速度，避免统计混乱，软件会首先根据检查类型进行一次筛选(把表头为"检查类型"为CT/DR/MR的文件进行一次筛选)，如果你想统计的部位涵括了CT、DR、MR，那么把这项设置为“否”使得软件能够对三种设备的病例进行统计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -151,6 +163,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -550,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -586,7 +599,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
@@ -608,13 +621,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,20 +669,31 @@
         <v>2021</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6 C8" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1628FA5B-43A0-459F-8E3E-1D04CCD4CA0D}">
-      <formula1>"新院区,旧院区,新院区2"</formula1>
+      <formula1>"旧院区,新院区,新院区2"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{122D7255-6164-4E51-9458-7A994ED412BE}">
       <formula1>"2019,2020,2021,2022,2023,全部"</formula1>
@@ -712,7 +736,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/设置.xlsx
+++ b/设置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PythonSaves\Statistic_for_mom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D68BAC5-1081-49AB-998D-EB0AE8EF74FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B237DDC-70D8-4FE9-B717-3EF183397F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22488" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="统计明细格式" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>选择</t>
   </si>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用统计关键字？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出的数据是新院区的还是旧院区的？这一项用来确定表头的关键字，导出文件中统计的表头关键字不同。表头关键字就是你统计的文件里，CT/DR/MR所在的那一列的列名，还有诸如"胸椎正侧位/腰椎正侧位/骨盆正位"这一列的列名，还有患者姓名这一列的列名。见右图所示。下面是几种文件的表头关键字。
 旧院区:"姓  名""设备""检查部位"
 新院区:"患者姓名""检查类型""检查全部项目"
@@ -144,7 +140,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为了加快统计速度，避免统计混乱，软件会首先根据检查类型进行一次筛选(把表头为"检查类型"为CT/DR/MR的文件进行一次筛选)，如果你想统计的部位涵括了CT、DR、MR，那么把这项设置为“否”使得软件能够对三种设备的病例进行统计。</t>
+    <t>对"检查类型"进行筛选的关键字的来源？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>使用关键词子表(MR/CT/DR/...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了加快统计速度，避免统计混乱，软件会首先根据检查类型进行一次筛选(把表头为"检查类型"为CT/DR/MR的文件进行一次筛选)。在这里可以对筛选作出定义。
+如果你想用MR关键词子表来统计做了MR病人的数据，那么选择“使用关键词子表(MR/CT/DR/...)”可以简化你的输入。
+如果你想用不同的关键词字典来统计某样筛选出来的数据:比如你想使用新定义的MR_2关键词子表，来统计MR数据，那么把这项设置为“自行输入”，然后在提示你输入关键词子表时，输入MR_2，而在提示你输入“筛选出的‘检查类型’的关键字”时，输入MR
+如果你想统计的部位涵括了CT、DR、MR，不想进行过滤，那么把这项设置为“不进行筛选”，使得软件能够对三种设备的病例进行统计。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,13 +574,13 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -596,10 +606,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
@@ -621,13 +631,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,31 +675,31 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>2021</v>
+      <c r="C7" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6 C8" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6" xr:uid="{2FDD220E-7748-4DC0-B57A-3AF007873D3A}">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1628FA5B-43A0-459F-8E3E-1D04CCD4CA0D}">
@@ -697,6 +707,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{122D7255-6164-4E51-9458-7A994ED412BE}">
       <formula1>"2019,2020,2021,2022,2023,全部"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4C76DC4B-1C57-4D1B-88ED-A54F52B79953}">
+      <formula1>"使用关键词子表(MR/CT/DR/...), 自行输入, 不进行筛选"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
